--- a/2020/February/All Details/25.02.2020/MC Bank Statement Feb'2020.xlsx
+++ b/2020/February/All Details/25.02.2020/MC Bank Statement Feb'2020.xlsx
@@ -3447,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="106">
-        <v>4382028.8475000001</v>
+        <v>4343360.4474999998</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="99"/>
@@ -3487,7 +3487,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="29">
-        <v>206199.61500000002</v>
+        <v>207183.01500000001</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="124" t="s">
@@ -3535,14 +3535,14 @@
       </c>
       <c r="B6" s="29">
         <f>B4+B5</f>
-        <v>7206199.6150000002</v>
+        <v>7207183.0149999997</v>
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="103" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="107">
-        <v>240000</v>
+        <v>284000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="99"/>
@@ -3587,7 +3587,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="40">
-        <v>1966170</v>
+        <v>1961820</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="99"/>
@@ -3675,7 +3675,7 @@
         <v>58</v>
       </c>
       <c r="E9" s="106">
-        <v>39075.767500000075</v>
+        <v>39077.567499999888</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="99"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B10" s="48">
         <f>B5-B8-B9</f>
-        <v>180274.61500000002</v>
+        <v>181258.01500000001</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="124"/>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="B13" s="31">
         <f>B6-B8-B11+B12-B9</f>
-        <v>6630274.6150000002</v>
+        <v>6631258.0149999997</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>6630274.6150000002</v>
+        <v>6631258.0149999997</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="88">
